--- a/src/main/resources/template/label_template.xlsx
+++ b/src/main/resources/template/label_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\label-system\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\workspace\label-system\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B641589-594E-40CF-91F0-8A5C9965199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标签" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>标签名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,11 +42,15 @@
     <t>标签编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,11 +375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,7 +389,7 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -397,6 +402,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/template/label_template.xlsx
+++ b/src/main/resources/template/label_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\workspace\label-system\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\label-system\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B641589-594E-40CF-91F0-8A5C9965199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="标签" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>标签名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,13 +43,21 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -387,9 +394,11 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -404,6 +413,12 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
